--- a/PLANO DE TESTE-1.xlsx
+++ b/PLANO DE TESTE-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giovanni\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giovanni\Desktop\Java\Java-VScode\Testes-Caixa-Branca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A98D456-681A-4B07-942B-2C43FC66FF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535BD42C-501A-4CEE-9652-20235C06A840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORMATIVO" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +253,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -483,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -562,6 +567,7 @@
     <xf numFmtId="165" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -817,7 +823,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -843,7 +849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18.600000000000001" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1918,7 +1924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
@@ -1931,7 +1937,7 @@
     <col min="6" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
@@ -1942,7 +1948,7 @@
       </c>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>23</v>
       </c>
@@ -1951,9 +1957,9 @@
       <c r="D2" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="32"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>24</v>
       </c>
